--- a/AssesmentTask/src/test/resources/Assesment.xlsx
+++ b/AssesmentTask/src/test/resources/Assesment.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assesment" sheetId="1" r:id="rId1"/>
     <sheet name="Address" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:S30"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,37 +41,37 @@
     <t>TC_01</t>
   </si>
   <si>
+    <t>Raw Data</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Ravindar</t>
   </si>
   <si>
-    <t>Raw Data</t>
-  </si>
-  <si>
     <t>House</t>
   </si>
   <si>
+    <t xml:space="preserve">If I am </t>
+  </si>
+  <si>
     <t>StreetInfo</t>
   </si>
   <si>
+    <t>selected</t>
+  </si>
+  <si>
     <t>Landmark</t>
   </si>
   <si>
+    <t>plz inform me</t>
+  </si>
+  <si>
     <t>PinCode</t>
   </si>
   <si>
     <t>mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If I am </t>
-  </si>
-  <si>
-    <t>plz inform me</t>
-  </si>
-  <si>
-    <t>selected</t>
   </si>
 </sst>
 </file>
@@ -396,7 +392,7 @@
   <dimension ref="A4:C5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,13 +433,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -454,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -462,10 +458,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -473,28 +469,28 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>560017</v>
@@ -502,7 +498,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>7781977779</v>
